--- a/results/merge.xlsx
+++ b/results/merge.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s\PycharmProjects\sorts\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8EFAAE61-F70E-4941-8AA1-8A6C6146901B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="straight" sheetId="1" r:id="rId1"/>
     <sheet name="reversed" sheetId="2" r:id="rId2"/>
     <sheet name="sorted" sheetId="3" r:id="rId3"/>
     <sheet name="partly_sorted" sheetId="4" r:id="rId4"/>
+    <sheet name="same_elements" sheetId="5" r:id="rId5"/>
+    <sheet name="partly_same" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>byte</t>
   </si>
@@ -34,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -118,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -150,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -386,7 +438,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -394,22 +446,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>0.0029028</v>
+        <v>2.9028000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.0317334</v>
+        <v>3.1733400000000002E-2</v>
       </c>
       <c r="F2">
-        <v>0.3800964000000001</v>
+        <v>0.38009640000000011</v>
       </c>
       <c r="G2">
-        <v>4.7527444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.7527444000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,22 +469,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0003006</v>
+        <v>3.0059999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.002703</v>
+        <v>2.7030000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>0.032441</v>
+        <v>3.2440999999999998E-2</v>
       </c>
       <c r="F3">
-        <v>0.4063314</v>
+        <v>0.40633140000000001</v>
       </c>
       <c r="G3">
         <v>5.214607</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -440,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>0.002903</v>
+        <v>2.9030000000000002E-3</v>
       </c>
       <c r="E4">
-        <v>0.0336278</v>
+        <v>3.3627799999999999E-2</v>
       </c>
       <c r="F4">
-        <v>0.5072295999999999</v>
+        <v>0.50722959999999995</v>
       </c>
       <c r="G4">
-        <v>5.311502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.3115019999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -463,19 +515,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0022024</v>
+        <v>2.2024000000000002E-3</v>
       </c>
       <c r="E5">
-        <v>0.0303384</v>
+        <v>3.0338400000000001E-2</v>
       </c>
       <c r="F5">
-        <v>0.418644</v>
+        <v>0.41864400000000002</v>
       </c>
       <c r="G5">
-        <v>5.6984318</v>
+        <v>5.6984317999999998</v>
       </c>
     </row>
   </sheetData>
@@ -484,14 +536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -511,7 +563,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -519,22 +571,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D2">
-        <v>0.0029028</v>
+        <v>2.9028000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>0.0415436</v>
+        <v>4.15436E-2</v>
       </c>
       <c r="F2">
-        <v>0.4275496</v>
+        <v>0.42754959999999997</v>
       </c>
       <c r="G2">
-        <v>4.4754726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.4754725999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -542,22 +594,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>0.003804000000000001</v>
+        <v>3.804000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>0.0341354</v>
+        <v>3.4135400000000003E-2</v>
       </c>
       <c r="F3">
-        <v>0.3853392</v>
+        <v>0.38533919999999999</v>
       </c>
       <c r="G3">
-        <v>4.2898114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4.2898113999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,22 +617,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0034034</v>
+        <v>3.4034E-3</v>
       </c>
       <c r="E4">
-        <v>0.0306388</v>
+        <v>3.0638800000000001E-2</v>
       </c>
       <c r="F4">
-        <v>0.4398664</v>
+        <v>0.43986639999999999</v>
       </c>
       <c r="G4">
-        <v>5.368526399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.3685263999999986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -588,19 +640,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.003003</v>
+        <v>3.003E-3</v>
       </c>
       <c r="E5">
-        <v>0.0391412</v>
+        <v>3.9141200000000001E-2</v>
       </c>
       <c r="F5">
-        <v>0.3958058</v>
+        <v>0.39580579999999999</v>
       </c>
       <c r="G5">
-        <v>4.4603778</v>
+        <v>4.4603777999999998</v>
       </c>
     </row>
   </sheetData>
@@ -609,14 +661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -636,7 +688,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,22 +696,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001992</v>
+        <v>1.9919999999999999E-4</v>
       </c>
       <c r="D2">
-        <v>0.0024024</v>
+        <v>2.4023999999999998E-3</v>
       </c>
       <c r="E2">
-        <v>0.0354368</v>
+        <v>3.5436799999999997E-2</v>
       </c>
       <c r="F2">
-        <v>0.3781952</v>
+        <v>0.37819520000000001</v>
       </c>
       <c r="G2">
-        <v>4.465172600000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.4651726000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,22 +719,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002008</v>
+        <v>2.008E-4</v>
       </c>
       <c r="D3">
-        <v>0.0024954</v>
+        <v>2.4954E-3</v>
       </c>
       <c r="E3">
-        <v>0.0338352</v>
+        <v>3.3835200000000003E-2</v>
       </c>
       <c r="F3">
-        <v>0.3798964</v>
+        <v>0.37989640000000002</v>
       </c>
       <c r="G3">
-        <v>4.2725838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4.2725837999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -690,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0025088</v>
+        <v>2.5087999999999998E-3</v>
       </c>
       <c r="E4">
-        <v>0.0323338</v>
+        <v>3.2333800000000003E-2</v>
       </c>
       <c r="F4">
-        <v>0.4518724</v>
+        <v>0.45187240000000001</v>
       </c>
       <c r="G4">
-        <v>5.303624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.3036240000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -713,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0025966</v>
+        <v>2.5966000000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.0319334</v>
+        <v>3.1933400000000001E-2</v>
       </c>
       <c r="F5">
         <v>0.377195</v>
       </c>
       <c r="G5">
-        <v>4.4073054</v>
+        <v>4.4073054000000003</v>
       </c>
     </row>
   </sheetData>
@@ -734,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>5</v>
       </c>
@@ -761,7 +813,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -769,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D2">
-        <v>0.002309</v>
+        <v>2.3089999999999999E-3</v>
       </c>
       <c r="E2">
-        <v>0.0310242</v>
+        <v>3.1024199999999998E-2</v>
       </c>
       <c r="F2">
-        <v>0.3914154</v>
+        <v>0.39141540000000002</v>
       </c>
       <c r="G2">
-        <v>4.4077032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.4077032000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -792,22 +844,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D3">
-        <v>0.0023958</v>
+        <v>2.3958E-3</v>
       </c>
       <c r="E3">
-        <v>0.0313396</v>
+        <v>3.1339600000000002E-2</v>
       </c>
       <c r="F3">
-        <v>0.3962064</v>
+        <v>0.39620640000000001</v>
       </c>
       <c r="G3">
-        <v>4.996725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4.9967249999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -815,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002002</v>
+        <v>2.0019999999999999E-4</v>
       </c>
       <c r="D4">
-        <v>0.0023028</v>
+        <v>2.3027999999999998E-3</v>
       </c>
       <c r="E4">
-        <v>0.0394342</v>
+        <v>3.9434200000000003E-2</v>
       </c>
       <c r="F4">
-        <v>0.429349</v>
+        <v>0.42934899999999998</v>
       </c>
       <c r="G4">
-        <v>5.2860626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5.2860626000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -838,19 +890,271 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002004</v>
+        <v>2.0039999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>0.0020096</v>
+        <v>2.0095999999999998E-3</v>
       </c>
       <c r="E5">
-        <v>0.0315332</v>
+        <v>3.1533199999999997E-2</v>
       </c>
       <c r="F5">
-        <v>0.4087716</v>
+        <v>0.40877160000000001</v>
       </c>
       <c r="G5">
-        <v>5.6400586</v>
+        <v>5.6400585999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21680305-7D3A-474C-9035-91807E272C2E}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.0002999999999997E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.44103999999999999</v>
+      </c>
+      <c r="G2">
+        <v>4.8714490000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2.9989999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>3.2002999999999997E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.43403799999999998</v>
+      </c>
+      <c r="G3">
+        <v>4.6234080000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="D4">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.6004000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.40003499999999997</v>
+      </c>
+      <c r="G4">
+        <v>4.6253919999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.4002999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.46004099999999998</v>
+      </c>
+      <c r="G5">
+        <v>4.9014350000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C583503C-F8A8-4452-9CE9-C2EB7CA33D3F}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>50</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>5000</v>
+      </c>
+      <c r="F1">
+        <v>50000</v>
+      </c>
+      <c r="G1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>3.1001999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.36903200000000003</v>
+      </c>
+      <c r="G2">
+        <v>4.5644039999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>3.1002999999999999E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.37303999999999998</v>
+      </c>
+      <c r="G3">
+        <v>4.6514480000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>3.0010000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.9003000000000003E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.38806499999999999</v>
+      </c>
+      <c r="G4">
+        <v>4.9564409999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.9989999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>3.6003E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.36999599999999999</v>
+      </c>
+      <c r="G5">
+        <v>5.6967059999999998</v>
       </c>
     </row>
   </sheetData>
